--- a/stock_historical_data/1wk/NIITLTD.NS.xlsx
+++ b/stock_historical_data/1wk/NIITLTD.NS.xlsx
@@ -66213,7 +66213,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NIITLTD.NS.xlsx
+++ b/stock_historical_data/1wk/NIITLTD.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1174"/>
+  <dimension ref="A1:R1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65981,7 +65981,7 @@
         <v>21</v>
       </c>
       <c r="O1170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1170" t="n">
         <v>0</v>
@@ -66216,6 +66216,114 @@
       <c r="R1174" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>104</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>108.6500015258789</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>100.9599990844727</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>105.6800003051758</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>105.6800003051758</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>3394351</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>106.3399963378906</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>106.5199966430664</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>101.3199996948242</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>102.6699981689453</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>102.6699981689453</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>1126796</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NIITLTD.NS.xlsx
+++ b/stock_historical_data/1wk/NIITLTD.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1176"/>
+  <dimension ref="A1:R1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -66093,7 +66093,7 @@
         <v>23</v>
       </c>
       <c r="O1172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1172" t="n">
         <v>0</v>
@@ -66269,7 +66269,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66323,7 +66325,1829 @@
       <c r="Q1176" t="n">
         <v>2</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>105.1840546970525</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>121.0712344144227</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>103.8393736800571</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>115.9813613891602</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>15986530</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>115.9813615195579</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>120.72260707223</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>112.1564827920746</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>116.778205871582</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>6476620</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>116.6387604946533</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>117.0073058601811</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>107.7738146372163</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>109.2081451416016</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>2013293</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>109.566726552221</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>130.2748311831685</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>107.5746042512715</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>127.316535949707</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>19346463</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>128.3922718944591</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>128.8903024529305</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>115.5430895653709</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>115.9614334106445</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>7185870</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>116.3399433022763</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>120.4237924251851</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>113.8497904713144</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>115.3638000488281</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>2465223</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>113.6505758896537</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>115.3837201658039</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>107.0765738082704</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>112.9334106445312</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>2553882</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>113.5011617720501</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>153.2340393066406</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>112.4752200326476</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>153.2340393066406</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>25219149</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>167.3382724951047</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>182.2791896821676</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>158.0948262779367</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>165.9338226318359</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>72996273</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>163.4038403870662</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>203.0968694774913</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>161.3718670590468</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>182.1497039794922</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>31360671</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>183.6999969482422</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>198.4499969482422</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>185.9299926757812</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>12997736</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>186</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>169</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>174.0700073242188</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>7507749</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>174.4499969482422</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>179</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>167.1999969482422</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>173.1199951171875</v>
+      </c>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="n">
+        <v>6040024</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>172.6000061035156</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>173.9900054931641</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>155.0399932861328</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>157.8999938964844</v>
+      </c>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="n">
+        <v>3872749</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>177.75</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>156</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>175.75</v>
+      </c>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="n">
+        <v>10683725</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>177.3999938964844</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>183.8500061035156</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>162</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>168</v>
+      </c>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="n">
+        <v>8797047</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>168.1499938964844</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>168.4499969482422</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>148.0099945068359</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>154.0599975585938</v>
+      </c>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="n">
+        <v>6813540</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>153.3500061035156</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>166.8000030517578</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>150.75</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>158.8099975585938</v>
+      </c>
+      <c r="F1194" t="inlineStr"/>
+      <c r="G1194" t="n">
+        <v>3851775</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>158.9900054931641</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>207.4900054931641</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>158.5399932861328</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>191.7200012207031</v>
+      </c>
+      <c r="F1195" t="inlineStr"/>
+      <c r="G1195" t="n">
+        <v>35030596</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>193</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>196.9799957275391</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>178.1100006103516</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>185.3300018310547</v>
+      </c>
+      <c r="F1196" t="inlineStr"/>
+      <c r="G1196" t="n">
+        <v>9282651</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>187</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>204.8999938964844</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>185.1999969482422</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>190.9400024414062</v>
+      </c>
+      <c r="F1197" t="inlineStr"/>
+      <c r="G1197" t="n">
+        <v>17036029</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>191.1799926757812</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>233.8000030517578</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>190.2899932861328</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>227.9799957275391</v>
+      </c>
+      <c r="F1198" t="inlineStr"/>
+      <c r="G1198" t="n">
+        <v>40458245</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>229.3000030517578</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>230.0899963378906</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>208</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>210.3200073242188</v>
+      </c>
+      <c r="F1199" t="inlineStr"/>
+      <c r="G1199" t="n">
+        <v>6648874</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>211.1999969482422</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>222.7899932861328</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>208</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>209.3800048828125</v>
+      </c>
+      <c r="F1200" t="inlineStr"/>
+      <c r="G1200" t="n">
+        <v>7806384</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>210.8500061035156</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>182.1499938964844</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>185.4900054931641</v>
+      </c>
+      <c r="F1201" t="inlineStr"/>
+      <c r="G1201" t="n">
+        <v>5774538</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>186.0500030517578</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>197.6999969482422</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>178.9400024414062</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>185.1399993896484</v>
+      </c>
+      <c r="F1202" t="inlineStr"/>
+      <c r="G1202" t="n">
+        <v>4973718</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>184</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>204.1999969482422</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>182.3000030517578</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>183.8000030517578</v>
+      </c>
+      <c r="F1203" t="inlineStr"/>
+      <c r="G1203" t="n">
+        <v>6809983</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>186.0399932861328</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>192.8999938964844</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>158.3999938964844</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>161.4400024414062</v>
+      </c>
+      <c r="F1204" t="inlineStr"/>
+      <c r="G1204" t="n">
+        <v>5306244</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>165.8999938964844</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>174.3899993896484</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>158.8099975585938</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>171.3800048828125</v>
+      </c>
+      <c r="F1205" t="inlineStr"/>
+      <c r="G1205" t="n">
+        <v>5048350</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>178.8000030517578</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>148</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>149.3699951171875</v>
+      </c>
+      <c r="F1206" t="inlineStr"/>
+      <c r="G1206" t="n">
+        <v>5575748</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>151</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>163.8000030517578</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>137.0500030517578</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>148.6499938964844</v>
+      </c>
+      <c r="F1207" t="inlineStr"/>
+      <c r="G1207" t="n">
+        <v>8454638</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>150.9499969482422</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>151.8999938964844</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>134.4100036621094</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>136.1199951171875</v>
+      </c>
+      <c r="F1208" t="inlineStr"/>
+      <c r="G1208" t="n">
+        <v>4753481</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>135.6000061035156</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>136.2400054931641</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>119.4100036621094</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>124.5500030517578</v>
+      </c>
+      <c r="F1209" t="inlineStr"/>
+      <c r="G1209" t="n">
+        <v>6580247</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>132.3999938964844</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>122.5800018310547</v>
+      </c>
+      <c r="F1210" t="inlineStr"/>
+      <c r="G1210" t="n">
+        <v>4108171</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>123</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>126.6800003051758</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>110.3199996948242</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="F1211" t="inlineStr"/>
+      <c r="G1211" t="n">
+        <v>2080410</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/NIITLTD.NS.xlsx
+++ b/stock_historical_data/1wk/NIITLTD.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1211"/>
+  <dimension ref="A1:R1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -66379,7 +66379,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66431,7 +66433,9 @@
       <c r="Q1178" t="n">
         <v>1</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66483,7 +66487,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66535,7 +66541,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66587,7 +66595,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66639,7 +66649,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66691,7 +66703,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66743,7 +66757,9 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
@@ -66795,7 +66811,9 @@
       <c r="Q1185" t="n">
         <v>0</v>
       </c>
-      <c r="R1185" t="inlineStr"/>
+      <c r="R1185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
@@ -66847,7 +66865,9 @@
       <c r="Q1186" t="n">
         <v>0</v>
       </c>
-      <c r="R1186" t="inlineStr"/>
+      <c r="R1186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
@@ -66899,7 +66919,9 @@
       <c r="Q1187" t="n">
         <v>0</v>
       </c>
-      <c r="R1187" t="inlineStr"/>
+      <c r="R1187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
@@ -66951,7 +66973,9 @@
       <c r="Q1188" t="n">
         <v>0</v>
       </c>
-      <c r="R1188" t="inlineStr"/>
+      <c r="R1188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
@@ -67003,7 +67027,9 @@
       <c r="Q1189" t="n">
         <v>1</v>
       </c>
-      <c r="R1189" t="inlineStr"/>
+      <c r="R1189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
@@ -67055,7 +67081,9 @@
       <c r="Q1190" t="n">
         <v>0</v>
       </c>
-      <c r="R1190" t="inlineStr"/>
+      <c r="R1190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
@@ -67107,7 +67135,9 @@
       <c r="Q1191" t="n">
         <v>0</v>
       </c>
-      <c r="R1191" t="inlineStr"/>
+      <c r="R1191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
@@ -67159,7 +67189,9 @@
       <c r="Q1192" t="n">
         <v>2</v>
       </c>
-      <c r="R1192" t="inlineStr"/>
+      <c r="R1192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
@@ -67211,7 +67243,9 @@
       <c r="Q1193" t="n">
         <v>0</v>
       </c>
-      <c r="R1193" t="inlineStr"/>
+      <c r="R1193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
@@ -67263,7 +67297,9 @@
       <c r="Q1194" t="n">
         <v>0</v>
       </c>
-      <c r="R1194" t="inlineStr"/>
+      <c r="R1194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
@@ -67315,7 +67351,9 @@
       <c r="Q1195" t="n">
         <v>0</v>
       </c>
-      <c r="R1195" t="inlineStr"/>
+      <c r="R1195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
@@ -67367,7 +67405,9 @@
       <c r="Q1196" t="n">
         <v>0</v>
       </c>
-      <c r="R1196" t="inlineStr"/>
+      <c r="R1196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
@@ -67419,7 +67459,9 @@
       <c r="Q1197" t="n">
         <v>0</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
@@ -67471,7 +67513,9 @@
       <c r="Q1198" t="n">
         <v>0</v>
       </c>
-      <c r="R1198" t="inlineStr"/>
+      <c r="R1198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
@@ -67523,7 +67567,9 @@
       <c r="Q1199" t="n">
         <v>1</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
@@ -67575,7 +67621,9 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
@@ -67627,7 +67675,9 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
@@ -67679,7 +67729,9 @@
       <c r="Q1202" t="n">
         <v>0</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67731,7 +67783,9 @@
       <c r="Q1203" t="n">
         <v>0</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67783,7 +67837,9 @@
       <c r="Q1204" t="n">
         <v>2</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -67835,7 +67891,9 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
@@ -67887,7 +67945,9 @@
       <c r="Q1206" t="n">
         <v>0</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -67939,7 +67999,9 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
@@ -67991,7 +68053,9 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
@@ -68043,7 +68107,9 @@
       <c r="Q1209" t="n">
         <v>0</v>
       </c>
-      <c r="R1209" t="inlineStr"/>
+      <c r="R1209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
@@ -68095,7 +68161,9 @@
       <c r="Q1210" t="n">
         <v>0</v>
       </c>
-      <c r="R1210" t="inlineStr"/>
+      <c r="R1210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
@@ -68147,7 +68215,477 @@
       <c r="Q1211" t="n">
         <v>0</v>
       </c>
-      <c r="R1211" t="inlineStr"/>
+      <c r="R1211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>107</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>128.2899932861328</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>106.8099975585938</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>119.5599975585938</v>
+      </c>
+      <c r="F1212" t="inlineStr"/>
+      <c r="G1212" t="n">
+        <v>5288148</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>118</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>118.1999969482422</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>108.1500015258789</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>109.4899978637695</v>
+      </c>
+      <c r="F1213" t="inlineStr"/>
+      <c r="G1213" t="n">
+        <v>2584232</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>109.4899978637695</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>131.6199951171875</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>109.4899978637695</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>130.6199951171875</v>
+      </c>
+      <c r="F1214" t="inlineStr"/>
+      <c r="G1214" t="n">
+        <v>6642096</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>131.6399993896484</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>133.3000030517578</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>120.0599975585938</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>122.7399978637695</v>
+      </c>
+      <c r="F1215" t="inlineStr"/>
+      <c r="G1215" t="n">
+        <v>4716835</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>121.0999984741211</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>126.8000030517578</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>104.1399993896484</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>108.3600006103516</v>
+      </c>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="n">
+        <v>3730366</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>112</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>117</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>107.870002746582</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>115.9700012207031</v>
+      </c>
+      <c r="F1217" t="inlineStr"/>
+      <c r="G1217" t="n">
+        <v>2104445</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>119.4800033569336</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>136</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>118.4400024414062</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>131.2700042724609</v>
+      </c>
+      <c r="F1218" t="inlineStr"/>
+      <c r="G1218" t="n">
+        <v>6409667</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>131.7899932861328</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>150.75</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>128</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>134.4900054931641</v>
+      </c>
+      <c r="F1219" t="inlineStr"/>
+      <c r="G1219" t="n">
+        <v>26683763</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>134.5500030517578</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>137.6399993896484</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>128.3500061035156</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>129.5299987792969</v>
+      </c>
+      <c r="F1220" t="inlineStr"/>
+      <c r="G1220" t="n">
+        <v>1627409</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
